--- a/results/time_series_results/res_bus/p_mw.xlsx
+++ b/results/time_series_results/res_bus/p_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU170"/>
+  <dimension ref="A1:AV170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:48">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -511,13 +511,16 @@
       <c r="AU1" s="1">
         <v>45</v>
       </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.04894653556638895</v>
+        <v>-0.04805863610688188</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -654,13 +657,16 @@
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.04668194875137954</v>
+        <v>-0.04616922250102384</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -797,13 +803,16 @@
       <c r="AU3">
         <v>0</v>
       </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.03830776633156395</v>
+        <v>-0.03812670546230094</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -940,13 +949,16 @@
       <c r="AU4">
         <v>0</v>
       </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.03252278775899761</v>
+        <v>-0.03235593222532207</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1083,13 +1095,16 @@
       <c r="AU5">
         <v>0</v>
       </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.0248170220334904</v>
+        <v>-0.02471542285027716</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1226,13 +1241,16 @@
       <c r="AU6">
         <v>0</v>
       </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02387218363027874</v>
+        <v>-0.02378218060027124</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1369,13 +1387,16 @@
       <c r="AU7">
         <v>0</v>
       </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02146462824893403</v>
+        <v>-0.02138433023822889</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1512,13 +1533,16 @@
       <c r="AU8">
         <v>0</v>
       </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.01966686754596499</v>
+        <v>-0.01958556477823387</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1655,13 +1679,16 @@
       <c r="AU9">
         <v>0</v>
       </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.02306856133238678</v>
+        <v>-0.02300084493141707</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1798,13 +1825,16 @@
       <c r="AU10">
         <v>0</v>
       </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.02315467659015662</v>
+        <v>-0.02309632309625388</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1941,13 +1971,16 @@
       <c r="AU11">
         <v>0</v>
       </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02830502483854774</v>
+        <v>-0.02820742457618881</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2049,7 +2082,7 @@
         <v>0.000393000000000001</v>
       </c>
       <c r="AJ12">
-        <v>0.0002090000000000009</v>
+        <v>0.0001690000000000025</v>
       </c>
       <c r="AK12">
         <v>0.0003480000000000011</v>
@@ -2084,13 +2117,16 @@
       <c r="AU12">
         <v>0</v>
       </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.03168268356908104</v>
+        <v>-0.03085950600944783</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2192,7 +2228,7 @@
         <v>0.001809999999999999</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>-0.0006959999999999987</v>
       </c>
       <c r="AK13">
         <v>0.0003569999999999997</v>
@@ -2227,13 +2263,16 @@
       <c r="AU13">
         <v>0</v>
       </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.03822419959350438</v>
+        <v>-0.03691874140300368</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2335,10 +2374,10 @@
         <v>0.00103</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>-0.001004000000000001</v>
       </c>
       <c r="AK14">
-        <v>0.0004050000000000026</v>
+        <v>0.0004049999999999991</v>
       </c>
       <c r="AL14">
         <v>0.0004610000000000031</v>
@@ -2370,13 +2409,16 @@
       <c r="AU14">
         <v>0</v>
       </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.04187648109974208</v>
+        <v>-0.03989017093860637</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2478,7 +2520,7 @@
         <v>0.0009629999999999986</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>-0.001464</v>
       </c>
       <c r="AK15">
         <v>0.0005580000000000029</v>
@@ -2513,13 +2555,16 @@
       <c r="AU15">
         <v>0</v>
       </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.04215591610990595</v>
+        <v>-0.03989135250408943</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2621,7 +2666,7 @@
         <v>0.0009289999999999993</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>-0.001802999999999999</v>
       </c>
       <c r="AK16">
         <v>0.001118000000000001</v>
@@ -2630,7 +2675,7 @@
         <v>0.0004219999999999988</v>
       </c>
       <c r="AM16">
-        <v>0.0007389999999999966</v>
+        <v>0.0007390000000000001</v>
       </c>
       <c r="AN16">
         <v>0.000220999999999999</v>
@@ -2639,7 +2684,7 @@
         <v>0.0002780000000000005</v>
       </c>
       <c r="AP16">
-        <v>0.001772999999999997</v>
+        <v>0.001773</v>
       </c>
       <c r="AQ16">
         <v>0.0006040000000000004</v>
@@ -2656,13 +2701,16 @@
       <c r="AU16">
         <v>0</v>
       </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:48">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.04328678550068224</v>
+        <v>-0.04085458760410905</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2764,7 +2812,7 @@
         <v>0.000444</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>-0.001965999999999999</v>
       </c>
       <c r="AK17">
         <v>0.0009170000000000011</v>
@@ -2782,7 +2830,7 @@
         <v>0.001178999999999999</v>
       </c>
       <c r="AP17">
-        <v>0.001195000000000002</v>
+        <v>0.001194999999999998</v>
       </c>
       <c r="AQ17">
         <v>0.0008220000000000033</v>
@@ -2799,13 +2847,16 @@
       <c r="AU17">
         <v>0</v>
       </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:48">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.04648430280044916</v>
+        <v>-0.04390842632531197</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2907,7 +2958,7 @@
         <v>0.0007580000000000017</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>-0.002029000000000003</v>
       </c>
       <c r="AK18">
         <v>0.001015000000000002</v>
@@ -2942,13 +2993,16 @@
       <c r="AU18">
         <v>0</v>
       </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:48">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.04780354388302815</v>
+        <v>-0.04550539465956929</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3050,7 +3104,7 @@
         <v>0.0008060000000000012</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>-0.001752999999999998</v>
       </c>
       <c r="AK19">
         <v>0.001878999999999999</v>
@@ -3085,13 +3139,16 @@
       <c r="AU19">
         <v>0</v>
       </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:48">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.04237956365069573</v>
+        <v>-0.04066209466685634</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3193,7 +3250,7 @@
         <v>0.001170999999999998</v>
       </c>
       <c r="AJ20">
-        <v>1.000000000001E-06</v>
+        <v>-0.001374</v>
       </c>
       <c r="AK20">
         <v>0.001795999999999999</v>
@@ -3228,13 +3285,16 @@
       <c r="AU20">
         <v>0</v>
       </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:48">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.03487720309329694</v>
+        <v>-0.03373380283402065</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3336,7 +3396,7 @@
         <v>0.0005770000000000011</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>-0.0009699999999999986</v>
       </c>
       <c r="AK21">
         <v>0.001812999999999999</v>
@@ -3371,13 +3431,16 @@
       <c r="AU21">
         <v>0</v>
       </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.02963270944909981</v>
+        <v>-0.02912484499838898</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3479,7 +3542,7 @@
         <v>0.0005259999999999987</v>
       </c>
       <c r="AJ22">
-        <v>1.500000000000112E-05</v>
+        <v>-0.0003289999999999994</v>
       </c>
       <c r="AK22">
         <v>0.002141000000000001</v>
@@ -3514,13 +3577,16 @@
       <c r="AU22">
         <v>0</v>
       </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.03770924838868999</v>
+        <v>-0.03725243008120509</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3622,7 +3688,7 @@
         <v>0.0007699999999999999</v>
       </c>
       <c r="AJ23">
-        <v>0.0001460000000000003</v>
+        <v>7.000000000000062E-05</v>
       </c>
       <c r="AK23">
         <v>0.002006999999999998</v>
@@ -3657,13 +3723,16 @@
       <c r="AU23">
         <v>0</v>
       </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:48">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.04387199094747234</v>
+        <v>-0.04333756593648959</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3800,13 +3869,16 @@
       <c r="AU24">
         <v>0</v>
       </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:48">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.04784985324363817</v>
+        <v>-0.0472841464809963</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3943,13 +4015,16 @@
       <c r="AU25">
         <v>0</v>
       </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:48">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.03940874302555897</v>
+        <v>-0.03916632776120102</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4086,13 +4161,16 @@
       <c r="AU26">
         <v>0</v>
       </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:48">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.03512521325787508</v>
+        <v>-0.03506894453752112</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4229,13 +4307,16 @@
       <c r="AU27">
         <v>0</v>
       </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:48">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.03475024589944986</v>
+        <v>-0.0347513400784456</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4372,13 +4453,16 @@
       <c r="AU28">
         <v>0</v>
       </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:48">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0277130621618169</v>
+        <v>-0.02767695351403459</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4515,13 +4599,16 @@
       <c r="AU29">
         <v>0</v>
       </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:48">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.02012838589625626</v>
+        <v>-0.02008731234399177</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4658,13 +4745,16 @@
       <c r="AU30">
         <v>0</v>
       </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:48">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01972653113421911</v>
+        <v>-0.01967499658934446</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4801,13 +4891,16 @@
       <c r="AU31">
         <v>0</v>
       </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:48">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01781585498156955</v>
+        <v>-0.01776908046932102</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4944,13 +5037,16 @@
       <c r="AU32">
         <v>0</v>
       </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:48">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01812755338861502</v>
+        <v>-0.01807562633013264</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5087,13 +5183,16 @@
       <c r="AU33">
         <v>0</v>
       </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:48">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.02147867939296491</v>
+        <v>-0.02144546987318782</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5230,13 +5329,16 @@
       <c r="AU34">
         <v>0</v>
       </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:48">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02071334415106866</v>
+        <v>-0.02068181021442094</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5338,7 +5440,7 @@
         <v>0.000399</v>
       </c>
       <c r="AJ35">
-        <v>0.0001849999999999994</v>
+        <v>0.0001839999999999984</v>
       </c>
       <c r="AK35">
         <v>0.000334000000000001</v>
@@ -5373,13 +5475,16 @@
       <c r="AU35">
         <v>0</v>
       </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:48">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.02858893795494318</v>
+        <v>-0.0285330691146341</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5481,7 +5586,7 @@
         <v>0.0003529999999999991</v>
       </c>
       <c r="AJ36">
-        <v>0.000163</v>
+        <v>0.0001309999999999992</v>
       </c>
       <c r="AK36">
         <v>0.0004940000000000014</v>
@@ -5516,13 +5621,16 @@
       <c r="AU36">
         <v>0</v>
       </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:48">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.03289526174736274</v>
+        <v>-0.03250632135642677</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5624,7 +5732,7 @@
         <v>0.001829999999999998</v>
       </c>
       <c r="AJ37">
-        <v>9.299999999999933E-05</v>
+        <v>-0.0001960000000000017</v>
       </c>
       <c r="AK37">
         <v>0.0007360000000000005</v>
@@ -5659,13 +5767,16 @@
       <c r="AU37">
         <v>0</v>
       </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:48">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.03725351489459552</v>
+        <v>-0.03625872547472786</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5767,7 +5878,7 @@
         <v>0.001611999999999999</v>
       </c>
       <c r="AJ38">
-        <v>8.999999999998592E-06</v>
+        <v>-0.0008260000000000003</v>
       </c>
       <c r="AK38">
         <v>0.0005970000000000003</v>
@@ -5776,7 +5887,7 @@
         <v>0.0002410000000000016</v>
       </c>
       <c r="AM38">
-        <v>0.001702000000000002</v>
+        <v>0.001701999999999999</v>
       </c>
       <c r="AN38">
         <v>0.0002040000000000028</v>
@@ -5802,13 +5913,16 @@
       <c r="AU38">
         <v>0</v>
       </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:48">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.03475145157051712</v>
+        <v>-0.0335062265707764</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5910,7 +6024,7 @@
         <v>0.0006770000000000005</v>
       </c>
       <c r="AJ39">
-        <v>0.0001139999999999995</v>
+        <v>-0.0008380000000000019</v>
       </c>
       <c r="AK39">
         <v>0.0007090000000000013</v>
@@ -5937,7 +6051,7 @@
         <v>0.000903000000000001</v>
       </c>
       <c r="AS39">
-        <v>0.0002390000000000031</v>
+        <v>0.0002389999999999996</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -5945,13 +6059,16 @@
       <c r="AU39">
         <v>0</v>
       </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:48">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.03742958242951747</v>
+        <v>-0.03583018383408488</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -6053,7 +6170,7 @@
         <v>0.0004690000000000007</v>
       </c>
       <c r="AJ40">
-        <v>7.599999999999968E-05</v>
+        <v>-0.001181999999999999</v>
       </c>
       <c r="AK40">
         <v>0.001006</v>
@@ -6071,7 +6188,7 @@
         <v>0.0001309999999999992</v>
       </c>
       <c r="AP40">
-        <v>0.000794000000000003</v>
+        <v>0.0007939999999999996</v>
       </c>
       <c r="AQ40">
         <v>0.0002079999999999999</v>
@@ -6088,13 +6205,16 @@
       <c r="AU40">
         <v>0</v>
       </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:48">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.04333074255134926</v>
+        <v>-0.04096587538119026</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6196,10 +6316,10 @@
         <v>0.0003820000000000004</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>-0.001951999999999999</v>
       </c>
       <c r="AK41">
-        <v>0.003213999999999998</v>
+        <v>0.003214000000000002</v>
       </c>
       <c r="AL41">
         <v>0.0003760000000000013</v>
@@ -6231,13 +6351,16 @@
       <c r="AU41">
         <v>0</v>
       </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:48">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.05165103895529533</v>
+        <v>-0.04914694380813962</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6339,7 +6462,7 @@
         <v>0.0004369999999999999</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>-0.001981000000000004</v>
       </c>
       <c r="AK42">
         <v>0.002812000000000002</v>
@@ -6374,13 +6497,16 @@
       <c r="AU42">
         <v>0</v>
       </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:48">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.05070301154741527</v>
+        <v>-0.04934095490447744</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6482,7 +6608,7 @@
         <v>0.0005490000000000009</v>
       </c>
       <c r="AJ43">
-        <v>0.0002549999999999983</v>
+        <v>-0.0007030000000000022</v>
       </c>
       <c r="AK43">
         <v>0.002548000000000002</v>
@@ -6517,13 +6643,16 @@
       <c r="AU43">
         <v>0</v>
       </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:48">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.04651725199277762</v>
+        <v>-0.04486929279441779</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6625,7 +6754,7 @@
         <v>0.001299000000000002</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>-0.001247999999999999</v>
       </c>
       <c r="AK44">
         <v>0.002277000000000001</v>
@@ -6660,13 +6789,16 @@
       <c r="AU44">
         <v>0</v>
       </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:48">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.04096094384866116</v>
+        <v>-0.04028200502352321</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6768,7 +6900,7 @@
         <v>0.0006880000000000011</v>
       </c>
       <c r="AJ45">
-        <v>0.0004860000000000003</v>
+        <v>4.099999999999937E-05</v>
       </c>
       <c r="AK45">
         <v>0.002301000000000001</v>
@@ -6803,13 +6935,16 @@
       <c r="AU45">
         <v>0</v>
       </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:48">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.04211339108715129</v>
+        <v>-0.04133972372108084</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6911,10 +7046,10 @@
         <v>0.0004809999999999988</v>
       </c>
       <c r="AJ46">
-        <v>0.0002449999999999987</v>
+        <v>0.0001460000000000003</v>
       </c>
       <c r="AK46">
-        <v>0.001812000000000001</v>
+        <v>0.001811999999999998</v>
       </c>
       <c r="AL46">
         <v>0.0003850000000000034</v>
@@ -6946,13 +7081,16 @@
       <c r="AU46">
         <v>0</v>
       </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:48">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.0369368704183571</v>
+        <v>-0.036507893680219</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -7089,13 +7227,16 @@
       <c r="AU47">
         <v>0</v>
       </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:48">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.0409319271346105</v>
+        <v>-0.04036773482352174</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -7232,13 +7373,16 @@
       <c r="AU48">
         <v>0</v>
       </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:48">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.04277162951357486</v>
+        <v>-0.04226477326056594</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -7375,13 +7519,16 @@
       <c r="AU49">
         <v>0</v>
       </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:48">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.03407769506618242</v>
+        <v>-0.03387820499749742</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -7518,13 +7665,16 @@
       <c r="AU50">
         <v>0</v>
       </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:48">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.03552048258903371</v>
+        <v>-0.03541047243734897</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -7661,13 +7811,16 @@
       <c r="AU51">
         <v>0</v>
       </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:48">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.0338163296740752</v>
+        <v>-0.03375134461153835</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -7804,13 +7957,16 @@
       <c r="AU52">
         <v>0</v>
       </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:48">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.03055037371777954</v>
+        <v>-0.03047962901632675</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -7947,13 +8103,16 @@
       <c r="AU53">
         <v>0</v>
       </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:48">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.02556975803418303</v>
+        <v>-0.02553043233891267</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -8090,13 +8249,16 @@
       <c r="AU54">
         <v>0</v>
       </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:48">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.02499282547568003</v>
+        <v>-0.02493070702236851</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -8233,13 +8395,16 @@
       <c r="AU55">
         <v>0</v>
       </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:48">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.02080515002325117</v>
+        <v>-0.02075390091924497</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -8376,13 +8541,16 @@
       <c r="AU56">
         <v>0</v>
       </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:48">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.01858231865122421</v>
+        <v>-0.01853178721072475</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -8519,13 +8687,16 @@
       <c r="AU57">
         <v>0</v>
       </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:48">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.02089604140383064</v>
+        <v>-0.02084928552561906</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -8662,13 +8833,16 @@
       <c r="AU58">
         <v>0</v>
       </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:48">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.02070419537787169</v>
+        <v>-0.02067718817222246</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -8805,13 +8979,16 @@
       <c r="AU59">
         <v>0</v>
       </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:48">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.03197666891026704</v>
+        <v>-0.03177870253830328</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -8913,7 +9090,7 @@
         <v>0.0005740000000000016</v>
       </c>
       <c r="AJ60">
-        <v>0.00017</v>
+        <v>0.0001290000000000006</v>
       </c>
       <c r="AK60">
         <v>0.0003830000000000014</v>
@@ -8948,13 +9125,16 @@
       <c r="AU60">
         <v>0</v>
       </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:48">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.0342099120248093</v>
+        <v>-0.03351674462234542</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -9056,7 +9236,7 @@
         <v>0.001913999999999999</v>
       </c>
       <c r="AJ61">
-        <v>0.0001010000000000004</v>
+        <v>-0.000511000000000001</v>
       </c>
       <c r="AK61">
         <v>0.0005310000000000002</v>
@@ -9091,13 +9271,16 @@
       <c r="AU61">
         <v>0</v>
       </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:48">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.03590990281325943</v>
+        <v>-0.03472987695063183</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -9199,7 +9382,7 @@
         <v>0.001511999999999999</v>
       </c>
       <c r="AJ62">
-        <v>1.000000000001E-06</v>
+        <v>-0.001003999999999998</v>
       </c>
       <c r="AK62">
         <v>0.000563000000000001</v>
@@ -9220,10 +9403,10 @@
         <v>0.001840000000000001</v>
       </c>
       <c r="AQ62">
-        <v>0.000336000000000003</v>
+        <v>0.0003359999999999995</v>
       </c>
       <c r="AR62">
-        <v>0.000893999999999999</v>
+        <v>0.0008940000000000024</v>
       </c>
       <c r="AS62">
         <v>0.0002749999999999975</v>
@@ -9234,13 +9417,16 @@
       <c r="AU62">
         <v>0</v>
       </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:48">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.03294029252346261</v>
+        <v>-0.03079821184629667</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -9342,7 +9528,7 @@
         <v>0.001260000000000001</v>
       </c>
       <c r="AJ63">
-        <v>0</v>
+        <v>-0.001905</v>
       </c>
       <c r="AK63">
         <v>0.0006950000000000012</v>
@@ -9377,13 +9563,16 @@
       <c r="AU63">
         <v>0</v>
       </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:48">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.03381257504195907</v>
+        <v>-0.03180859728994719</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -9485,7 +9674,7 @@
         <v>0.0004690000000000007</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>-0.001760999999999999</v>
       </c>
       <c r="AK64">
         <v>0.001101000000000001</v>
@@ -9520,13 +9709,16 @@
       <c r="AU64">
         <v>0</v>
       </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:48">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.03702153971220614</v>
+        <v>-0.0349617578653732</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -9628,7 +9820,7 @@
         <v>0.0006549999999999993</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>-0.001764999999999999</v>
       </c>
       <c r="AK65">
         <v>0.001045000000000001</v>
@@ -9643,16 +9835,16 @@
         <v>6.400000000000156E-05</v>
       </c>
       <c r="AO65">
-        <v>0.0009939999999999984</v>
+        <v>0.0009940000000000018</v>
       </c>
       <c r="AP65">
-        <v>0.0009409999999999974</v>
+        <v>0.0009410000000000009</v>
       </c>
       <c r="AQ65">
         <v>0.0006449999999999997</v>
       </c>
       <c r="AR65">
-        <v>0.001226999999999999</v>
+        <v>0.001227000000000002</v>
       </c>
       <c r="AS65">
         <v>0.000446000000000002</v>
@@ -9663,13 +9855,16 @@
       <c r="AU65">
         <v>0</v>
       </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:48">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.04708047710888458</v>
+        <v>-0.04489129113181412</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -9771,7 +9966,7 @@
         <v>0.000676999999999997</v>
       </c>
       <c r="AJ66">
-        <v>3.000000000003E-06</v>
+        <v>-0.001745999999999998</v>
       </c>
       <c r="AK66">
         <v>0.001769</v>
@@ -9806,13 +10001,16 @@
       <c r="AU66">
         <v>0</v>
       </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:48">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.04847892454462552</v>
+        <v>-0.04734249548911858</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -9914,7 +10112,7 @@
         <v>0.0006060000000000024</v>
       </c>
       <c r="AJ67">
-        <v>0.0002940000000000026</v>
+        <v>-0.0004139999999999977</v>
       </c>
       <c r="AK67">
         <v>0.001507000000000001</v>
@@ -9949,13 +10147,16 @@
       <c r="AU67">
         <v>0</v>
       </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:48">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.0412854470726572</v>
+        <v>-0.03981676547962303</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -10057,7 +10258,7 @@
         <v>0.001143000000000002</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>-0.001247999999999999</v>
       </c>
       <c r="AK68">
         <v>0.001946999999999997</v>
@@ -10092,13 +10293,16 @@
       <c r="AU68">
         <v>0</v>
       </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:48">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.03790602592931799</v>
+        <v>-0.03700398426466041</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -10200,7 +10404,7 @@
         <v>0.0007820000000000014</v>
       </c>
       <c r="AJ69">
-        <v>1.000000000001E-06</v>
+        <v>-0.0007279999999999995</v>
       </c>
       <c r="AK69">
         <v>0.001851999999999999</v>
@@ -10235,13 +10439,16 @@
       <c r="AU69">
         <v>0</v>
       </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:48">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.03178793940276992</v>
+        <v>-0.03147190936622506</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -10343,7 +10550,7 @@
         <v>0.0004019999999999996</v>
       </c>
       <c r="AJ70">
-        <v>0.001159</v>
+        <v>0.0009730000000000016</v>
       </c>
       <c r="AK70">
         <v>0.001771999999999999</v>
@@ -10378,13 +10585,16 @@
       <c r="AU70">
         <v>0</v>
       </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:48">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.02933231998949905</v>
+        <v>-0.02925856008751762</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -10521,13 +10731,16 @@
       <c r="AU71">
         <v>0</v>
       </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:48">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.02994960265329095</v>
+        <v>-0.02988961032970161</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -10664,13 +10877,16 @@
       <c r="AU72">
         <v>0</v>
       </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:48">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.03630156477437701</v>
+        <v>-0.03627094504574093</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -10807,13 +11023,16 @@
       <c r="AU73">
         <v>0</v>
       </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:48">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.03191776841438794</v>
+        <v>-0.03188372867815115</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -10950,13 +11169,16 @@
       <c r="AU74">
         <v>0</v>
       </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:48">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.03002982034000598</v>
+        <v>-0.03002766848531915</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -11093,13 +11315,16 @@
       <c r="AU75">
         <v>0</v>
       </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:48">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.02938972334313797</v>
+        <v>-0.0293745681261528</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -11236,13 +11461,16 @@
       <c r="AU76">
         <v>0</v>
       </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:48">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.02503395867244021</v>
+        <v>-0.02499307255470302</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -11379,13 +11607,16 @@
       <c r="AU77">
         <v>0</v>
       </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:48">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.0228002246572372</v>
+        <v>-0.02275153695612318</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -11522,13 +11753,16 @@
       <c r="AU78">
         <v>0</v>
       </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:48">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.02208503503150408</v>
+        <v>-0.02203784600519162</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -11665,13 +11899,16 @@
       <c r="AU79">
         <v>0</v>
       </c>
+      <c r="AV79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:48">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.02076814545752495</v>
+        <v>-0.02071237609313291</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -11808,13 +12045,16 @@
       <c r="AU80">
         <v>0</v>
       </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:48">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.02164395412356713</v>
+        <v>-0.02160382141792131</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -11951,13 +12191,16 @@
       <c r="AU81">
         <v>0</v>
       </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:48">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.02162653543859205</v>
+        <v>-0.02159766629606736</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -12094,13 +12337,16 @@
       <c r="AU82">
         <v>0</v>
       </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:48">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.02119086825504553</v>
+        <v>-0.02115825813535495</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -12237,13 +12483,16 @@
       <c r="AU83">
         <v>0</v>
       </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:48">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.02633851222544014</v>
+        <v>-0.02632244267043152</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -12345,7 +12594,7 @@
         <v>0.0004130000000000002</v>
       </c>
       <c r="AJ84">
-        <v>0.0006560000000000003</v>
+        <v>0.0006390000000000007</v>
       </c>
       <c r="AK84">
         <v>0.0004299999999999998</v>
@@ -12380,13 +12629,16 @@
       <c r="AU84">
         <v>0</v>
       </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:48">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.02755085954306792</v>
+        <v>-0.02685693067395041</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -12488,7 +12740,7 @@
         <v>0.001802999999999999</v>
       </c>
       <c r="AJ85">
-        <v>0.0002720000000000014</v>
+        <v>-0.000399</v>
       </c>
       <c r="AK85">
         <v>0.0005159999999999991</v>
@@ -12497,7 +12749,7 @@
         <v>0.0004679999999999997</v>
       </c>
       <c r="AM85">
-        <v>0.0006469999999999983</v>
+        <v>0.0006470000000000017</v>
       </c>
       <c r="AN85">
         <v>5.300000000000096E-05</v>
@@ -12523,13 +12775,16 @@
       <c r="AU85">
         <v>0</v>
       </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:48">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.02557107283683736</v>
+        <v>-0.02452189149625068</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -12631,7 +12886,7 @@
         <v>0.001579000000000001</v>
       </c>
       <c r="AJ86">
-        <v>1.000000000001E-06</v>
+        <v>-0.0009999999999999974</v>
       </c>
       <c r="AK86">
         <v>0.0005889999999999992</v>
@@ -12666,13 +12921,16 @@
       <c r="AU86">
         <v>0</v>
       </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:48">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.02345752082478782</v>
+        <v>-0.02243381557096295</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -12774,10 +13032,10 @@
         <v>0.0005889999999999992</v>
       </c>
       <c r="AJ87">
-        <v>0.0001579999999999984</v>
+        <v>-0.0008050000000000019</v>
       </c>
       <c r="AK87">
-        <v>0.0004709999999999992</v>
+        <v>0.0004710000000000009</v>
       </c>
       <c r="AL87">
         <v>0.0002540000000000008</v>
@@ -12809,13 +13067,16 @@
       <c r="AU87">
         <v>0</v>
       </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:48">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.02799940287046546</v>
+        <v>-0.02637834882298472</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -12917,7 +13178,7 @@
         <v>0.0003960000000000005</v>
       </c>
       <c r="AJ88">
-        <v>3.299999999999831E-05</v>
+        <v>-0.001498000000000003</v>
       </c>
       <c r="AK88">
         <v>0.002168</v>
@@ -12952,13 +13213,16 @@
       <c r="AU88">
         <v>0</v>
       </c>
+      <c r="AV88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:48">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.0375619959127262</v>
+        <v>-0.03625503866308941</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -13060,7 +13324,7 @@
         <v>0.001371000000000001</v>
       </c>
       <c r="AJ89">
-        <v>8.100000000000121E-05</v>
+        <v>-0.001155</v>
       </c>
       <c r="AK89">
         <v>0.002617000000000001</v>
@@ -13095,13 +13359,16 @@
       <c r="AU89">
         <v>0</v>
       </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:48">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.04169733496974262</v>
+        <v>-0.04086450520809248</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -13203,7 +13470,7 @@
         <v>0.0008300000000000009</v>
       </c>
       <c r="AJ90">
-        <v>0.0002090000000000009</v>
+        <v>-0.0005909999999999978</v>
       </c>
       <c r="AK90">
         <v>0.002102</v>
@@ -13221,7 +13488,7 @@
         <v>0.0004159999999999997</v>
       </c>
       <c r="AP90">
-        <v>0.002034999999999999</v>
+        <v>0.002035000000000002</v>
       </c>
       <c r="AQ90">
         <v>0.0002689999999999984</v>
@@ -13238,13 +13505,16 @@
       <c r="AU90">
         <v>0</v>
       </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:48">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.04021764279420577</v>
+        <v>-0.04020304523267788</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -13381,13 +13651,16 @@
       <c r="AU91">
         <v>0</v>
       </c>
+      <c r="AV91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:48">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.03383357881711561</v>
+        <v>-0.0337799428535329</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -13524,13 +13797,16 @@
       <c r="AU92">
         <v>0</v>
       </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:48">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.03433806723545309</v>
+        <v>-0.03424642414186885</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -13632,7 +13908,7 @@
         <v>0.0006700000000000005</v>
       </c>
       <c r="AJ93">
-        <v>0.0004410000000000004</v>
+        <v>0.0004110000000000016</v>
       </c>
       <c r="AK93">
         <v>0.0008650000000000012</v>
@@ -13653,7 +13929,7 @@
         <v>0.001250000000000001</v>
       </c>
       <c r="AQ93">
-        <v>0.0005429999999999983</v>
+        <v>0.0005430000000000018</v>
       </c>
       <c r="AR93">
         <v>0.002333000000000002</v>
@@ -13667,13 +13943,16 @@
       <c r="AU93">
         <v>0</v>
       </c>
+      <c r="AV93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:48">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.0369642068207589</v>
+        <v>-0.0367728413492579</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -13810,13 +14089,16 @@
       <c r="AU94">
         <v>0</v>
       </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:48">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.04027441009077249</v>
+        <v>-0.0399323199637986</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -13953,13 +14235,16 @@
       <c r="AU95">
         <v>0</v>
       </c>
+      <c r="AV95">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:48">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.04114630441030979</v>
+        <v>-0.04088239081060958</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -14096,13 +14381,16 @@
       <c r="AU96">
         <v>0</v>
       </c>
+      <c r="AV96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:48">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.04090483103581936</v>
+        <v>-0.04057720646581248</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -14239,13 +14527,16 @@
       <c r="AU97">
         <v>0</v>
       </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:48">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.04404397581183273</v>
+        <v>-0.04365157944655418</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -14382,13 +14673,16 @@
       <c r="AU98">
         <v>0</v>
       </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:48">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.03839722743760252</v>
+        <v>-0.03827470271576708</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -14525,13 +14819,16 @@
       <c r="AU99">
         <v>0</v>
       </c>
+      <c r="AV99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:48">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.03649580204081747</v>
+        <v>-0.03646068264193868</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -14668,13 +14965,16 @@
       <c r="AU100">
         <v>0</v>
       </c>
+      <c r="AV100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:48">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.02962096380258703</v>
+        <v>-0.02954744212059255</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -14811,13 +15111,16 @@
       <c r="AU101">
         <v>0</v>
       </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" spans="1:48">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.02801857119027604</v>
+        <v>-0.02795938828490283</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -14954,13 +15257,16 @@
       <c r="AU102">
         <v>0</v>
       </c>
+      <c r="AV102">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" spans="1:48">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.02548818736284738</v>
+        <v>-0.0254221383456073</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -15097,13 +15403,16 @@
       <c r="AU103">
         <v>0</v>
       </c>
+      <c r="AV103">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" spans="1:48">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.02334519208845059</v>
+        <v>-0.02327198076373083</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -15240,13 +15549,16 @@
       <c r="AU104">
         <v>0</v>
       </c>
+      <c r="AV104">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" spans="1:48">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.01997341772812851</v>
+        <v>-0.01991323522135896</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -15383,13 +15695,16 @@
       <c r="AU105">
         <v>0</v>
       </c>
+      <c r="AV105">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" spans="1:48">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.02233928321398189</v>
+        <v>-0.02228690779566524</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -15526,13 +15841,16 @@
       <c r="AU106">
         <v>0</v>
       </c>
+      <c r="AV106">
+        <v>0</v>
+      </c>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" spans="1:48">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.02349230964871413</v>
+        <v>-0.02343596293845039</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -15634,7 +15952,7 @@
         <v>0.0004270000000000003</v>
       </c>
       <c r="AJ107">
-        <v>0.0001810000000000006</v>
+        <v>0.0001790000000000021</v>
       </c>
       <c r="AK107">
         <v>0.0003680000000000003</v>
@@ -15669,13 +15987,16 @@
       <c r="AU107">
         <v>0</v>
       </c>
+      <c r="AV107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" spans="1:48">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.02881807167422627</v>
+        <v>-0.02875878252258512</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -15777,7 +16098,7 @@
         <v>0.0004329999999999994</v>
       </c>
       <c r="AJ108">
-        <v>9.800000000000086E-05</v>
+        <v>6.400000000000156E-05</v>
       </c>
       <c r="AK108">
         <v>0.0005530000000000014</v>
@@ -15812,13 +16133,16 @@
       <c r="AU108">
         <v>0</v>
       </c>
+      <c r="AV108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:48">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.0272078938852994</v>
+        <v>-0.02624736885930144</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -15920,7 +16244,7 @@
         <v>0.001946</v>
       </c>
       <c r="AJ109">
-        <v>1.999999999998531E-06</v>
+        <v>-0.0009120000000000031</v>
       </c>
       <c r="AK109">
         <v>0.0003699999999999988</v>
@@ -15955,13 +16279,16 @@
       <c r="AU109">
         <v>0</v>
       </c>
+      <c r="AV109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" spans="1:48">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.02892319096082087</v>
+        <v>-0.02824682968172306</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -16063,7 +16390,7 @@
         <v>0.001621999999999998</v>
       </c>
       <c r="AJ110">
-        <v>0.0004539999999999995</v>
+        <v>-0.0001530000000000004</v>
       </c>
       <c r="AK110">
         <v>0.0008139999999999988</v>
@@ -16087,7 +16414,7 @@
         <v>0.0001379999999999992</v>
       </c>
       <c r="AR110">
-        <v>0.001646000000000002</v>
+        <v>0.001645999999999998</v>
       </c>
       <c r="AS110">
         <v>0.0003499999999999996</v>
@@ -16098,13 +16425,16 @@
       <c r="AU110">
         <v>0</v>
       </c>
+      <c r="AV110">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:48">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.02670507381904798</v>
+        <v>-0.02534697370037795</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -16206,7 +16536,7 @@
         <v>0.001776</v>
       </c>
       <c r="AJ111">
-        <v>0.0001330000000000012</v>
+        <v>-0.001145</v>
       </c>
       <c r="AK111">
         <v>0.0006029999999999994</v>
@@ -16241,13 +16571,16 @@
       <c r="AU111">
         <v>0</v>
       </c>
+      <c r="AV111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" spans="1:48">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.03709580812698006</v>
+        <v>-0.03509448080206398</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -16349,7 +16682,7 @@
         <v>0.001712999999999999</v>
       </c>
       <c r="AJ112">
-        <v>0</v>
+        <v>-0.001864999999999999</v>
       </c>
       <c r="AK112">
         <v>0.002367999999999999</v>
@@ -16384,13 +16717,16 @@
       <c r="AU112">
         <v>0</v>
       </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" spans="1:48">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.03794349534637834</v>
+        <v>-0.03582819054551151</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -16492,7 +16828,7 @@
         <v>0.001642000000000001</v>
       </c>
       <c r="AJ113">
-        <v>0</v>
+        <v>-0.002020999999999998</v>
       </c>
       <c r="AK113">
         <v>0.002777999999999999</v>
@@ -16516,7 +16852,7 @@
         <v>0.0001770000000000001</v>
       </c>
       <c r="AR113">
-        <v>0.006952999999999997</v>
+        <v>0.006953000000000001</v>
       </c>
       <c r="AS113">
         <v>0.0004299999999999998</v>
@@ -16527,13 +16863,16 @@
       <c r="AU113">
         <v>0</v>
       </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" spans="1:48">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.04197489273139779</v>
+        <v>-0.04044718136604584</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -16635,7 +16974,7 @@
         <v>0.002006000000000001</v>
       </c>
       <c r="AJ114">
-        <v>2.999999999999531E-06</v>
+        <v>-0.001389999999999999</v>
       </c>
       <c r="AK114">
         <v>0.002833000000000002</v>
@@ -16670,13 +17009,16 @@
       <c r="AU114">
         <v>0</v>
       </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" spans="1:48">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.04149229798565938</v>
+        <v>-0.03968945973968848</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -16778,7 +17120,7 @@
         <v>0.0009340000000000008</v>
       </c>
       <c r="AJ115">
-        <v>0</v>
+        <v>-0.001631000000000001</v>
       </c>
       <c r="AK115">
         <v>0.002176000000000001</v>
@@ -16793,16 +17135,16 @@
         <v>0.000331999999999999</v>
       </c>
       <c r="AO115">
-        <v>0.0003500000000000031</v>
+        <v>0.0003499999999999996</v>
       </c>
       <c r="AP115">
-        <v>0.0003519999999999981</v>
+        <v>0.0003520000000000016</v>
       </c>
       <c r="AQ115">
         <v>0.0003280000000000019</v>
       </c>
       <c r="AR115">
-        <v>0.005262000000000003</v>
+        <v>0.005261999999999996</v>
       </c>
       <c r="AS115">
         <v>0.0004349999999999979</v>
@@ -16813,13 +17155,16 @@
       <c r="AU115">
         <v>0</v>
       </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" spans="1:48">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.04338167176923806</v>
+        <v>-0.04158052482209224</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -16921,10 +17266,10 @@
         <v>0.001289000000000002</v>
       </c>
       <c r="AJ116">
-        <v>0</v>
+        <v>-0.001445999999999999</v>
       </c>
       <c r="AK116">
-        <v>0.001947999999999998</v>
+        <v>0.001948000000000002</v>
       </c>
       <c r="AL116">
         <v>0.0003509999999999971</v>
@@ -16956,13 +17301,16 @@
       <c r="AU116">
         <v>0</v>
       </c>
+      <c r="AV116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" spans="1:48">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.04921510864763864</v>
+        <v>-0.04788608397148343</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -17064,7 +17412,7 @@
         <v>0.0007549999999999987</v>
       </c>
       <c r="AJ117">
-        <v>0</v>
+        <v>-0.000903000000000001</v>
       </c>
       <c r="AK117">
         <v>0.001835999999999997</v>
@@ -17099,13 +17447,16 @@
       <c r="AU117">
         <v>0</v>
       </c>
+      <c r="AV117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" spans="1:48">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.04950925866831667</v>
+        <v>-0.04817562622614936</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -17207,7 +17558,7 @@
         <v>0.000445000000000001</v>
       </c>
       <c r="AJ118">
-        <v>0</v>
+        <v>-0.0006880000000000011</v>
       </c>
       <c r="AK118">
         <v>0.001814999999999997</v>
@@ -17242,13 +17593,16 @@
       <c r="AU118">
         <v>0</v>
       </c>
+      <c r="AV118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" spans="1:48">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.05138227998026855</v>
+        <v>-0.05035683007784152</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -17350,7 +17704,7 @@
         <v>0.0003799999999999984</v>
       </c>
       <c r="AJ119">
-        <v>0.0001239999999999991</v>
+        <v>1.500000000000112E-05</v>
       </c>
       <c r="AK119">
         <v>0.001986000000000002</v>
@@ -17385,13 +17739,16 @@
       <c r="AU119">
         <v>0</v>
       </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" spans="1:48">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.0512036200111325</v>
+        <v>-0.05030994161367767</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -17493,7 +17850,7 @@
         <v>0.0003990000000000035</v>
       </c>
       <c r="AJ120">
-        <v>0.0002930000000000016</v>
+        <v>0.0002920000000000006</v>
       </c>
       <c r="AK120">
         <v>0.001322999999999998</v>
@@ -17528,13 +17885,16 @@
       <c r="AU120">
         <v>0</v>
       </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" spans="1:48">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.05125129324321941</v>
+        <v>-0.05043081451072799</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -17671,13 +18031,16 @@
       <c r="AU121">
         <v>0</v>
       </c>
+      <c r="AV121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" spans="1:48">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.04289457713102499</v>
+        <v>-0.04255310097626994</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -17814,13 +18177,16 @@
       <c r="AU122">
         <v>0</v>
       </c>
+      <c r="AV122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" spans="1:48">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.03865102785543156</v>
+        <v>-0.03852177206094548</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -17957,13 +18323,16 @@
       <c r="AU123">
         <v>0</v>
       </c>
+      <c r="AV123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" spans="1:48">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.0340464839505993</v>
+        <v>-0.03400347034452443</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -18100,13 +18469,16 @@
       <c r="AU124">
         <v>0</v>
       </c>
+      <c r="AV124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" spans="1:48">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.02956718398265285</v>
+        <v>-0.02954578412547861</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -18243,13 +18615,16 @@
       <c r="AU125">
         <v>0</v>
       </c>
+      <c r="AV125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:47">
+    <row r="126" spans="1:48">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.02746332208602415</v>
+        <v>-0.02742658710054533</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -18386,13 +18761,16 @@
       <c r="AU126">
         <v>0</v>
       </c>
+      <c r="AV126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:47">
+    <row r="127" spans="1:48">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.02594497314013702</v>
+        <v>-0.02591025670577936</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -18529,13 +18907,16 @@
       <c r="AU127">
         <v>0</v>
       </c>
+      <c r="AV127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:47">
+    <row r="128" spans="1:48">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.02340744702813569</v>
+        <v>-0.02336373975918474</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -18672,13 +19053,16 @@
       <c r="AU128">
         <v>0</v>
       </c>
+      <c r="AV128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" spans="1:48">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.02201438270139361</v>
+        <v>-0.02197428208645568</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -18815,13 +19199,16 @@
       <c r="AU129">
         <v>0</v>
       </c>
+      <c r="AV129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" spans="1:48">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.02343204174567677</v>
+        <v>-0.02339730113891529</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -18958,13 +19345,16 @@
       <c r="AU130">
         <v>0</v>
       </c>
+      <c r="AV130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" spans="1:48">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.02472062293538304</v>
+        <v>-0.02469855227449505</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -19101,13 +19491,16 @@
       <c r="AU131">
         <v>0</v>
       </c>
+      <c r="AV131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" spans="1:48">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.03384483570855563</v>
+        <v>-0.03370888849803805</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -19209,7 +19602,7 @@
         <v>0.0004539999999999995</v>
       </c>
       <c r="AJ132">
-        <v>0.0007220000000000004</v>
+        <v>0.0007080000000000003</v>
       </c>
       <c r="AK132">
         <v>0.0004040000000000016</v>
@@ -19244,13 +19637,16 @@
       <c r="AU132">
         <v>0</v>
       </c>
+      <c r="AV132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" spans="1:48">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.03117868227645886</v>
+        <v>-0.03023730314698186</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -19352,7 +19748,7 @@
         <v>0.001863</v>
       </c>
       <c r="AJ133">
-        <v>8.99999999999998E-05</v>
+        <v>-0.0007659999999999993</v>
       </c>
       <c r="AK133">
         <v>0.0003349999999999985</v>
@@ -19387,13 +19783,16 @@
       <c r="AU133">
         <v>0</v>
       </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" spans="1:48">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.04183345829786028</v>
+        <v>-0.04030210632709381</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -19495,7 +19894,7 @@
         <v>0.001340000000000001</v>
       </c>
       <c r="AJ134">
-        <v>1.000000000001E-06</v>
+        <v>-0.001195999999999996</v>
       </c>
       <c r="AK134">
         <v>0.0006979999999999972</v>
@@ -19530,13 +19929,16 @@
       <c r="AU134">
         <v>0</v>
       </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" spans="1:48">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.04067809924675376</v>
+        <v>-0.03881222695331933</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -19638,7 +20040,7 @@
         <v>0.0004860000000000003</v>
       </c>
       <c r="AJ135">
-        <v>0</v>
+        <v>-0.001562000000000001</v>
       </c>
       <c r="AK135">
         <v>0.0005959999999999993</v>
@@ -19673,13 +20075,16 @@
       <c r="AU135">
         <v>0</v>
       </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" spans="1:48">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.04615635531532224</v>
+        <v>-0.04384556851078987</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -19781,13 +20186,13 @@
         <v>0.0005189999999999986</v>
       </c>
       <c r="AJ136">
-        <v>1.000000000001E-06</v>
+        <v>-0.001974</v>
       </c>
       <c r="AK136">
         <v>0.0008060000000000012</v>
       </c>
       <c r="AL136">
-        <v>0.0008789999999999978</v>
+        <v>0.0008790000000000013</v>
       </c>
       <c r="AM136">
         <v>0.0006460000000000007</v>
@@ -19805,7 +20210,7 @@
         <v>0.0002380000000000021</v>
       </c>
       <c r="AR136">
-        <v>0.007107999999999996</v>
+        <v>0.007108000000000003</v>
       </c>
       <c r="AS136">
         <v>0.0002559999999999993</v>
@@ -19816,13 +20221,16 @@
       <c r="AU136">
         <v>0</v>
       </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" spans="1:48">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.04991311509634386</v>
+        <v>-0.04722290609566298</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -19924,7 +20332,7 @@
         <v>0.0004129999999999967</v>
       </c>
       <c r="AJ137">
-        <v>0</v>
+        <v>-0.002126000000000003</v>
       </c>
       <c r="AK137">
         <v>0.00195</v>
@@ -19959,13 +20367,16 @@
       <c r="AU137">
         <v>0</v>
       </c>
+      <c r="AV137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" spans="1:48">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.05424351097314564</v>
+        <v>-0.05164786741876573</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -20067,7 +20478,7 @@
         <v>0.0008400000000000005</v>
       </c>
       <c r="AJ138">
-        <v>0</v>
+        <v>-0.001974999999999998</v>
       </c>
       <c r="AK138">
         <v>0.002335999999999998</v>
@@ -20091,7 +20502,7 @@
         <v>0.0005669999999999981</v>
       </c>
       <c r="AR138">
-        <v>0.006415000000000004</v>
+        <v>0.006414999999999997</v>
       </c>
       <c r="AS138">
         <v>0.0005830000000000002</v>
@@ -20102,13 +20513,16 @@
       <c r="AU138">
         <v>0</v>
       </c>
+      <c r="AV138">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" spans="1:48">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.05851154514884451</v>
+        <v>-0.05610669607590178</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -20210,7 +20624,7 @@
         <v>0.0006470000000000017</v>
       </c>
       <c r="AJ139">
-        <v>0</v>
+        <v>-0.001724999999999997</v>
       </c>
       <c r="AK139">
         <v>0.001814000000000003</v>
@@ -20228,7 +20642,7 @@
         <v>0.0003470000000000001</v>
       </c>
       <c r="AP139">
-        <v>0.002972999999999996</v>
+        <v>0.002973000000000003</v>
       </c>
       <c r="AQ139">
         <v>0.0004339999999999969</v>
@@ -20245,13 +20659,16 @@
       <c r="AU139">
         <v>0</v>
       </c>
+      <c r="AV139">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" spans="1:48">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.04666341534142451</v>
+        <v>-0.0449435859915458</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -20353,7 +20770,7 @@
         <v>0.0009419999999999984</v>
       </c>
       <c r="AJ140">
-        <v>0</v>
+        <v>-0.001461</v>
       </c>
       <c r="AK140">
         <v>0.001431999999999999</v>
@@ -20362,7 +20779,7 @@
         <v>0.0004240000000000008</v>
       </c>
       <c r="AM140">
-        <v>0.0003220000000000028</v>
+        <v>0.0003219999999999994</v>
       </c>
       <c r="AN140">
         <v>7.100000000000162E-05</v>
@@ -20388,13 +20805,16 @@
       <c r="AU140">
         <v>0</v>
       </c>
+      <c r="AV140">
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" spans="1:48">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.04752538786082838</v>
+        <v>-0.04625537253400325</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -20496,10 +20916,10 @@
         <v>0.0007699999999999999</v>
       </c>
       <c r="AJ141">
-        <v>0</v>
+        <v>-0.0009680000000000001</v>
       </c>
       <c r="AK141">
-        <v>0.001654999999999997</v>
+        <v>0.001655</v>
       </c>
       <c r="AL141">
         <v>0.0003760000000000013</v>
@@ -20531,13 +20951,16 @@
       <c r="AU141">
         <v>0</v>
       </c>
+      <c r="AV141">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" spans="1:48">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.04932090577594772</v>
+        <v>-0.04811401363250979</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -20639,7 +21062,7 @@
         <v>0.0005230000000000026</v>
       </c>
       <c r="AJ142">
-        <v>1.000000000001E-06</v>
+        <v>-0.0006330000000000016</v>
       </c>
       <c r="AK142">
         <v>0.001881000000000001</v>
@@ -20666,7 +21089,7 @@
         <v>0.007600000000000003</v>
       </c>
       <c r="AS142">
-        <v>0.0003990000000000035</v>
+        <v>0.0003989999999999966</v>
       </c>
       <c r="AT142">
         <v>0</v>
@@ -20674,13 +21097,16 @@
       <c r="AU142">
         <v>0</v>
       </c>
+      <c r="AV142">
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" spans="1:48">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.05780580871492227</v>
+        <v>-0.0565139932991624</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -20782,7 +21208,7 @@
         <v>0.0003799999999999984</v>
       </c>
       <c r="AJ143">
-        <v>0.0001429999999999973</v>
+        <v>2.199999999999425E-05</v>
       </c>
       <c r="AK143">
         <v>0.002194000000000002</v>
@@ -20817,13 +21243,16 @@
       <c r="AU143">
         <v>0</v>
       </c>
+      <c r="AV143">
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:47">
+    <row r="144" spans="1:48">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.05752349325004084</v>
+        <v>-0.05637888018415184</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -20960,13 +21389,16 @@
       <c r="AU144">
         <v>0</v>
       </c>
+      <c r="AV144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:47">
+    <row r="145" spans="1:48">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.05709187108543268</v>
+        <v>-0.05589021075163184</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -21103,13 +21535,16 @@
       <c r="AU145">
         <v>0</v>
       </c>
+      <c r="AV145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:47">
+    <row r="146" spans="1:48">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.05267046225038172</v>
+        <v>-0.05184764619570562</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -21246,13 +21681,16 @@
       <c r="AU146">
         <v>0</v>
       </c>
+      <c r="AV146">
+        <v>0</v>
+      </c>
     </row>
-    <row r="147" spans="1:47">
+    <row r="147" spans="1:48">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.0464213731383356</v>
+        <v>-0.04603030692592277</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -21389,13 +21827,16 @@
       <c r="AU147">
         <v>0</v>
       </c>
+      <c r="AV147">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:47">
+    <row r="148" spans="1:48">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.04266635336534492</v>
+        <v>-0.04249615345839939</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -21532,13 +21973,16 @@
       <c r="AU148">
         <v>0</v>
       </c>
+      <c r="AV148">
+        <v>0</v>
+      </c>
     </row>
-    <row r="149" spans="1:47">
+    <row r="149" spans="1:48">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.03063211807950838</v>
+        <v>-0.03052849149906287</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -21675,13 +22119,16 @@
       <c r="AU149">
         <v>0</v>
       </c>
+      <c r="AV149">
+        <v>0</v>
+      </c>
     </row>
-    <row r="150" spans="1:47">
+    <row r="150" spans="1:48">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.02890516111803297</v>
+        <v>-0.02881513697504461</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -21818,13 +22265,16 @@
       <c r="AU150">
         <v>0</v>
       </c>
+      <c r="AV150">
+        <v>0</v>
+      </c>
     </row>
-    <row r="151" spans="1:47">
+    <row r="151" spans="1:48">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.02464168191910579</v>
+        <v>-0.02459345461171249</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -21961,13 +22411,16 @@
       <c r="AU151">
         <v>0</v>
       </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:47">
+    <row r="152" spans="1:48">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.02273546013317092</v>
+        <v>-0.0226837026841494</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -22104,13 +22557,16 @@
       <c r="AU152">
         <v>0</v>
       </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
     </row>
-    <row r="153" spans="1:47">
+    <row r="153" spans="1:48">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.02059654398166325</v>
+        <v>-0.02055168797827101</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -22247,13 +22703,16 @@
       <c r="AU153">
         <v>0</v>
       </c>
+      <c r="AV153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:47">
+    <row r="154" spans="1:48">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.0228690361576387</v>
+        <v>-0.02282673438148362</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -22390,13 +22849,16 @@
       <c r="AU154">
         <v>0</v>
       </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:47">
+    <row r="155" spans="1:48">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.02334672487676373</v>
+        <v>-0.02332068705156509</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -22498,7 +22960,7 @@
         <v>0.0003550000000000011</v>
       </c>
       <c r="AJ155">
-        <v>0.000118</v>
+        <v>0.0001129999999999985</v>
       </c>
       <c r="AK155">
         <v>0.0003230000000000004</v>
@@ -22516,7 +22978,7 @@
         <v>0.000116999999999999</v>
       </c>
       <c r="AP155">
-        <v>0.002212000000000002</v>
+        <v>0.002211999999999999</v>
       </c>
       <c r="AQ155">
         <v>0.0003839999999999989</v>
@@ -22533,13 +22995,16 @@
       <c r="AU155">
         <v>0</v>
       </c>
+      <c r="AV155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:47">
+    <row r="156" spans="1:48">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.0319515416934884</v>
+        <v>-0.03176998072753696</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -22641,7 +23106,7 @@
         <v>0.0003680000000000003</v>
       </c>
       <c r="AJ156">
-        <v>0.0001370000000000017</v>
+        <v>0.0001160000000000015</v>
       </c>
       <c r="AK156">
         <v>0.0004319999999999984</v>
@@ -22676,13 +23141,16 @@
       <c r="AU156">
         <v>0</v>
       </c>
+      <c r="AV156">
+        <v>0</v>
+      </c>
     </row>
-    <row r="157" spans="1:47">
+    <row r="157" spans="1:48">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.03560278342481708</v>
+        <v>-0.03478026625431919</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -22784,7 +23252,7 @@
         <v>0.001884</v>
       </c>
       <c r="AJ157">
-        <v>5.499999999999949E-05</v>
+        <v>-0.0005199999999999996</v>
       </c>
       <c r="AK157">
         <v>0.0005329999999999988</v>
@@ -22805,10 +23273,10 @@
         <v>0.0003510000000000006</v>
       </c>
       <c r="AQ157">
-        <v>0.000329999999999997</v>
+        <v>0.0003300000000000004</v>
       </c>
       <c r="AR157">
-        <v>0.0008490000000000025</v>
+        <v>0.0008489999999999991</v>
       </c>
       <c r="AS157">
         <v>0.0003490000000000021</v>
@@ -22819,13 +23287,16 @@
       <c r="AU157">
         <v>0</v>
       </c>
+      <c r="AV157">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:47">
+    <row r="158" spans="1:48">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.03757800518742457</v>
+        <v>-0.03674747717542179</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -22927,16 +23398,16 @@
         <v>0.001644</v>
       </c>
       <c r="AJ158">
-        <v>2.800000000000025E-05</v>
+        <v>-0.0005549999999999999</v>
       </c>
       <c r="AK158">
         <v>0.0003499999999999996</v>
       </c>
       <c r="AL158">
-        <v>0.0001620000000000024</v>
+        <v>0.000161999999999999</v>
       </c>
       <c r="AM158">
-        <v>0.0007739999999999969</v>
+        <v>0.0007740000000000004</v>
       </c>
       <c r="AN158">
         <v>0.0001309999999999992</v>
@@ -22962,13 +23433,16 @@
       <c r="AU158">
         <v>0</v>
       </c>
+      <c r="AV158">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:47">
+    <row r="159" spans="1:48">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.03648063949972775</v>
+        <v>-0.03555955296523092</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -23070,7 +23544,7 @@
         <v>0.001115000000000001</v>
       </c>
       <c r="AJ159">
-        <v>0.0001680000000000015</v>
+        <v>-0.0003610000000000002</v>
       </c>
       <c r="AK159">
         <v>0.0004130000000000002</v>
@@ -23085,10 +23559,10 @@
         <v>0.0002309999999999986</v>
       </c>
       <c r="AO159">
-        <v>0.000225000000000003</v>
+        <v>0.0002249999999999995</v>
       </c>
       <c r="AP159">
-        <v>0.0005679999999999991</v>
+        <v>0.0005680000000000025</v>
       </c>
       <c r="AQ159">
         <v>0.0001569999999999974</v>
@@ -23105,13 +23579,16 @@
       <c r="AU159">
         <v>0</v>
       </c>
+      <c r="AV159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:47">
+    <row r="160" spans="1:48">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.03708434792067232</v>
+        <v>-0.03572797222599827</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -23213,7 +23690,7 @@
         <v>0.0005600000000000015</v>
       </c>
       <c r="AJ160">
-        <v>2.999999999999878E-05</v>
+        <v>-0.0008140000000000022</v>
       </c>
       <c r="AK160">
         <v>0.0003230000000000004</v>
@@ -23231,7 +23708,7 @@
         <v>0.0002930000000000016</v>
       </c>
       <c r="AP160">
-        <v>0.001237000000000002</v>
+        <v>0.001236999999999999</v>
       </c>
       <c r="AQ160">
         <v>0.0002949999999999967</v>
@@ -23248,13 +23725,16 @@
       <c r="AU160">
         <v>0</v>
       </c>
+      <c r="AV160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" spans="1:48">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.03807421976027536</v>
+        <v>-0.03617313140938003</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -23356,7 +23836,7 @@
         <v>0.0005070000000000005</v>
       </c>
       <c r="AJ161">
-        <v>4.000000000000531E-06</v>
+        <v>-0.001447999999999998</v>
       </c>
       <c r="AK161">
         <v>0.000331999999999999</v>
@@ -23374,7 +23854,7 @@
         <v>0.0006689999999999995</v>
       </c>
       <c r="AP161">
-        <v>0.001492</v>
+        <v>0.001491999999999997</v>
       </c>
       <c r="AQ161">
         <v>0.0007069999999999993</v>
@@ -23391,13 +23871,16 @@
       <c r="AU161">
         <v>0</v>
       </c>
+      <c r="AV161">
+        <v>0</v>
+      </c>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" spans="1:48">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.04608043835078976</v>
+        <v>-0.0449750302690728</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -23499,7 +23982,7 @@
         <v>0.0005319999999999978</v>
       </c>
       <c r="AJ162">
-        <v>3.600000000000131E-05</v>
+        <v>-0.0003939999999999985</v>
       </c>
       <c r="AK162">
         <v>0.0003550000000000011</v>
@@ -23534,13 +24017,16 @@
       <c r="AU162">
         <v>0</v>
       </c>
+      <c r="AV162">
+        <v>0</v>
+      </c>
     </row>
-    <row r="163" spans="1:47">
+    <row r="163" spans="1:48">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.04888205404689096</v>
+        <v>-0.04802882681521431</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -23642,7 +24128,7 @@
         <v>0.0008820000000000008</v>
       </c>
       <c r="AJ163">
-        <v>0.0001890000000000017</v>
+        <v>-4.499999999999643E-05</v>
       </c>
       <c r="AK163">
         <v>0.001509999999999997</v>
@@ -23677,13 +24163,16 @@
       <c r="AU163">
         <v>0</v>
       </c>
+      <c r="AV163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:47">
+    <row r="164" spans="1:48">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.04053652244744366</v>
+        <v>-0.03983803692554803</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -23785,7 +24274,7 @@
         <v>0.001042999999999999</v>
       </c>
       <c r="AJ164">
-        <v>0.0003159999999999968</v>
+        <v>3.999999999999837E-05</v>
       </c>
       <c r="AK164">
         <v>0.0007199999999999984</v>
@@ -23820,13 +24309,16 @@
       <c r="AU164">
         <v>0</v>
       </c>
+      <c r="AV164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:47">
+    <row r="165" spans="1:48">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.04181584522325198</v>
+        <v>-0.04154514828547842</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -23928,7 +24420,7 @@
         <v>0.0007740000000000004</v>
       </c>
       <c r="AJ165">
-        <v>0.001464</v>
+        <v>0.001462999999999999</v>
       </c>
       <c r="AK165">
         <v>0.0006589999999999999</v>
@@ -23963,13 +24455,16 @@
       <c r="AU165">
         <v>0</v>
       </c>
+      <c r="AV165">
+        <v>0</v>
+      </c>
     </row>
-    <row r="166" spans="1:47">
+    <row r="166" spans="1:48">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.04550423905345668</v>
+        <v>-0.04478601459381042</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -24106,13 +24601,16 @@
       <c r="AU166">
         <v>0</v>
       </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:47">
+    <row r="167" spans="1:48">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.05274005490162538</v>
+        <v>-0.05154027740267796</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -24249,13 +24747,16 @@
       <c r="AU167">
         <v>0</v>
       </c>
+      <c r="AV167">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:47">
+    <row r="168" spans="1:48">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.05064954481533337</v>
+        <v>-0.04953689962117827</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -24392,13 +24893,16 @@
       <c r="AU168">
         <v>0</v>
       </c>
+      <c r="AV168">
+        <v>0</v>
+      </c>
     </row>
-    <row r="169" spans="1:47">
+    <row r="169" spans="1:48">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.05380484248899262</v>
+        <v>-0.05281377138316193</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -24535,13 +25039,16 @@
       <c r="AU169">
         <v>0</v>
       </c>
+      <c r="AV169">
+        <v>0</v>
+      </c>
     </row>
-    <row r="170" spans="1:47">
+    <row r="170" spans="1:48">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.04876979268831</v>
+        <v>-0.04800635220034288</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -24676,6 +25183,9 @@
         <v>0</v>
       </c>
       <c r="AU170">
+        <v>0</v>
+      </c>
+      <c r="AV170">
         <v>0</v>
       </c>
     </row>
